--- a/workfile/锐安项目文档/锐安项目二期/bi/数据/二期数据源_20191224v3.xlsx
+++ b/workfile/锐安项目文档/锐安项目二期/bi/数据/二期数据源_20191224v3.xlsx
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="388">
   <si>
     <t>BI模块</t>
   </si>
@@ -2238,6 +2238,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2245,9 +2248,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2730,10 +2730,10 @@
       <c r="F8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="G8" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="77" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2755,7 +2755,7 @@
         <v>29</v>
       </c>
       <c r="G9" s="73"/>
-      <c r="H9" s="74"/>
+      <c r="H9" s="75"/>
     </row>
     <row r="10" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="73"/>
@@ -2775,7 +2775,7 @@
         <v>31</v>
       </c>
       <c r="G10" s="73"/>
-      <c r="H10" s="74"/>
+      <c r="H10" s="75"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="73"/>
@@ -2795,7 +2795,7 @@
         <v>33</v>
       </c>
       <c r="G11" s="73"/>
-      <c r="H11" s="74"/>
+      <c r="H11" s="75"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="73"/>
@@ -2815,7 +2815,7 @@
         <v>34</v>
       </c>
       <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
+      <c r="H12" s="75"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="73"/>
@@ -2835,7 +2835,7 @@
         <v>36</v>
       </c>
       <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
+      <c r="H13" s="75"/>
     </row>
     <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
@@ -2843,7 +2843,7 @@
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="74" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -2858,15 +2858,15 @@
       <c r="F15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="74" t="s">
+      <c r="G15" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="77" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="77"/>
+      <c r="A16" s="74"/>
       <c r="B16" t="s">
         <v>41</v>
       </c>
@@ -2883,7 +2883,7 @@
       <c r="H16" s="73"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="77"/>
+      <c r="A17" s="74"/>
       <c r="B17" t="s">
         <v>45</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="H17" s="73"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="77"/>
+      <c r="A18" s="74"/>
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -2917,7 +2917,7 @@
       <c r="H18" s="73"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="77"/>
+      <c r="A19" s="74"/>
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -2957,7 +2957,7 @@
       <c r="F21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="75" t="s">
+      <c r="G21" s="76" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       <c r="F22" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="75"/>
+      <c r="G22" s="76"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
@@ -2995,7 +2995,7 @@
       <c r="F23" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="75"/>
+      <c r="G23" s="76"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
@@ -3013,7 +3013,7 @@
       <c r="F24" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="75"/>
+      <c r="G24" s="76"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
@@ -3031,7 +3031,7 @@
       <c r="F25" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="75"/>
+      <c r="G25" s="76"/>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
@@ -3083,6 +3083,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="H15:H19"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A15:A19"/>
@@ -3090,8 +3092,6 @@
     <mergeCell ref="G8:G13"/>
     <mergeCell ref="G15:G19"/>
     <mergeCell ref="G21:G25"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="H15:H19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3104,7 +3104,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6099,12 +6099,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
